--- a/Code/Results/Cases/Case_2_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9973290078185658</v>
+        <v>1.02180215628182</v>
       </c>
       <c r="D2">
-        <v>1.0151096010104</v>
+        <v>1.027618200386493</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.974041792121138</v>
+        <v>1.020239311050894</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039363884115069</v>
+        <v>1.030946282868828</v>
       </c>
       <c r="J2">
-        <v>1.019589902356605</v>
+        <v>1.026991572615026</v>
       </c>
       <c r="K2">
-        <v>1.026362373186583</v>
+        <v>1.03043740429647</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9858750165555508</v>
+        <v>1.023080185139902</v>
       </c>
       <c r="N2">
-        <v>1.010549540969996</v>
+        <v>1.013073959379771</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001092574027782</v>
+        <v>1.022577510827691</v>
       </c>
       <c r="D3">
-        <v>1.01779345404729</v>
+        <v>1.028189888896194</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9804608616159503</v>
+        <v>1.021650225594853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040298093994467</v>
+        <v>1.031088335780921</v>
       </c>
       <c r="J3">
-        <v>1.021553498622024</v>
+        <v>1.027405608717223</v>
       </c>
       <c r="K3">
-        <v>1.028203615976017</v>
+        <v>1.030817494064643</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9913500085325502</v>
+        <v>1.024295637257594</v>
       </c>
       <c r="N3">
-        <v>1.011202482154936</v>
+        <v>1.013211276150165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003477783623215</v>
+        <v>1.02307936737259</v>
       </c>
       <c r="D4">
-        <v>1.019496477833624</v>
+        <v>1.028559895784052</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9845169809851694</v>
+        <v>1.022563404435056</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040880548498684</v>
+        <v>1.031179123125931</v>
       </c>
       <c r="J4">
-        <v>1.02279294378391</v>
+        <v>1.027673003403625</v>
       </c>
       <c r="K4">
-        <v>1.029365157091141</v>
+        <v>1.031062822506086</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.994805935531457</v>
+        <v>1.025081830657428</v>
       </c>
       <c r="N4">
-        <v>1.011614609463014</v>
+        <v>1.013299941713283</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004468944673827</v>
+        <v>1.02329038286283</v>
       </c>
       <c r="D5">
-        <v>1.02020462681181</v>
+        <v>1.028715466100335</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9861999499601667</v>
+        <v>1.022947361226487</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041120253402584</v>
+        <v>1.031217019126009</v>
       </c>
       <c r="J5">
-        <v>1.023306780741743</v>
+        <v>1.027785292441931</v>
       </c>
       <c r="K5">
-        <v>1.029846520952359</v>
+        <v>1.03116581063787</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9962389705679466</v>
+        <v>1.025412280566139</v>
       </c>
       <c r="N5">
-        <v>1.011785459455763</v>
+        <v>1.013337171599949</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004634697248836</v>
+        <v>1.023325815315823</v>
       </c>
       <c r="D6">
-        <v>1.0203230774567</v>
+        <v>1.028741588144393</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.986481255447761</v>
+        <v>1.023011832658306</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041160201684775</v>
+        <v>1.031223366128491</v>
       </c>
       <c r="J6">
-        <v>1.023392638875426</v>
+        <v>1.027804138996416</v>
       </c>
       <c r="K6">
-        <v>1.029926942285629</v>
+        <v>1.031183094102401</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9964784462369832</v>
+        <v>1.025467760775004</v>
       </c>
       <c r="N6">
-        <v>1.011814006770706</v>
+        <v>1.013343420009939</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003491072549531</v>
+        <v>1.023082186835614</v>
       </c>
       <c r="D7">
-        <v>1.019505970498592</v>
+        <v>1.028561974447459</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.984539554813653</v>
+        <v>1.022568534659017</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040883771567102</v>
+        <v>1.03117963055946</v>
       </c>
       <c r="J7">
-        <v>1.022799837798858</v>
+        <v>1.027674504301953</v>
       </c>
       <c r="K7">
-        <v>1.029371616140099</v>
+        <v>1.031064199220749</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9948251605699998</v>
+        <v>1.025086246400664</v>
       </c>
       <c r="N7">
-        <v>1.011616901736933</v>
+        <v>1.013300439358393</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9986115411163422</v>
+        <v>1.022064159267292</v>
       </c>
       <c r="D8">
-        <v>1.016023731646601</v>
+        <v>1.027811386619518</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9762320133077711</v>
+        <v>1.020716091946442</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039684241828987</v>
+        <v>1.030994524139968</v>
       </c>
       <c r="J8">
-        <v>1.020260096420249</v>
+        <v>1.027131604225888</v>
       </c>
       <c r="K8">
-        <v>1.026990939140443</v>
+        <v>1.030565984344612</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9877438616835247</v>
+        <v>1.023491013488055</v>
       </c>
       <c r="N8">
-        <v>1.010772398545206</v>
+        <v>1.013120404935929</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.989610305771476</v>
+        <v>1.020271458995708</v>
       </c>
       <c r="D9">
-        <v>1.009618505358022</v>
+        <v>1.02648946843368</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9607929366045239</v>
+        <v>1.0174534199693</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037396025627981</v>
+        <v>1.030659702358139</v>
       </c>
       <c r="J9">
-        <v>1.015535362043811</v>
+        <v>1.026171029548005</v>
       </c>
       <c r="K9">
-        <v>1.022557433030723</v>
+        <v>1.029683386142633</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9745558509603777</v>
+        <v>1.020677710263055</v>
       </c>
       <c r="N9">
-        <v>1.009201293152094</v>
+        <v>1.012801733962393</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9833095054922817</v>
+        <v>1.019077185305457</v>
       </c>
       <c r="D10">
-        <v>1.005149904506927</v>
+        <v>1.025608740399385</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9498799054644225</v>
+        <v>1.015279166160612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0357446479512</v>
+        <v>1.030430700518498</v>
       </c>
       <c r="J10">
-        <v>1.012201342275633</v>
+        <v>1.025528045166171</v>
       </c>
       <c r="K10">
-        <v>1.019426794245243</v>
+        <v>1.02909188123661</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9652171617711598</v>
+        <v>1.018800468999474</v>
       </c>
       <c r="N10">
-        <v>1.008092709887401</v>
+        <v>1.012588339087986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.980502907695564</v>
+        <v>1.018560267062506</v>
       </c>
       <c r="D11">
-        <v>1.003163574295094</v>
+        <v>1.025227520798733</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9449865453254818</v>
+        <v>1.014337850764017</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0349975976532</v>
+        <v>1.030330172011376</v>
       </c>
       <c r="J11">
-        <v>1.010709900231789</v>
+        <v>1.025249015062506</v>
       </c>
       <c r="K11">
-        <v>1.018026075828847</v>
+        <v>1.028835024584791</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9610262621304068</v>
+        <v>1.017987162046739</v>
       </c>
       <c r="N11">
-        <v>1.007596837637371</v>
+        <v>1.012495714433539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9794479834232219</v>
+        <v>1.018368293057168</v>
       </c>
       <c r="D12">
-        <v>1.002417639294393</v>
+        <v>1.025085941277826</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9431417208541686</v>
+        <v>1.013988223137411</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034715104020071</v>
+        <v>1.030292625869322</v>
       </c>
       <c r="J12">
-        <v>1.010148349182601</v>
+        <v>1.025145279121901</v>
       </c>
       <c r="K12">
-        <v>1.017498667265522</v>
+        <v>1.028739507368028</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9594457975083671</v>
+        <v>1.017684992961183</v>
       </c>
       <c r="N12">
-        <v>1.007410142539351</v>
+        <v>1.012461276150124</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9796748419381606</v>
+        <v>1.018409470650747</v>
       </c>
       <c r="D13">
-        <v>1.00257801930395</v>
+        <v>1.025116309532878</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9435387074135358</v>
+        <v>1.014063218660085</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034775929779993</v>
+        <v>1.030300688932792</v>
       </c>
       <c r="J13">
-        <v>1.010269152552611</v>
+        <v>1.025167534977315</v>
       </c>
       <c r="K13">
-        <v>1.017612126120557</v>
+        <v>1.02876000106772</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9597859171084949</v>
+        <v>1.017749812505212</v>
       </c>
       <c r="N13">
-        <v>1.007450304803328</v>
+        <v>1.012468664785668</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9804159648985142</v>
+        <v>1.018544397764411</v>
       </c>
       <c r="D14">
-        <v>1.003102083232391</v>
+        <v>1.02521581732747</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9448346188595582</v>
+        <v>1.014308950073575</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034974349973525</v>
+        <v>1.030327072623324</v>
       </c>
       <c r="J14">
-        <v>1.010663638865069</v>
+        <v>1.025240442086077</v>
       </c>
       <c r="K14">
-        <v>1.01798262736825</v>
+        <v>1.028827131326315</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9608961157169424</v>
+        <v>1.017962186116056</v>
       </c>
       <c r="N14">
-        <v>1.007581457246781</v>
+        <v>1.012492868433839</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9808709275126987</v>
+        <v>1.018627535137771</v>
       </c>
       <c r="D15">
-        <v>1.003423887296471</v>
+        <v>1.025277130368384</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9456294040731403</v>
+        <v>1.014460355686917</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035095933621897</v>
+        <v>1.030343301281</v>
       </c>
       <c r="J15">
-        <v>1.010905680697262</v>
+        <v>1.025285350419584</v>
       </c>
       <c r="K15">
-        <v>1.018209951400716</v>
+        <v>1.028868478040118</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9615769422819447</v>
+        <v>1.018093027046533</v>
       </c>
       <c r="N15">
-        <v>1.007661928594503</v>
+        <v>1.012507776684798</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9834940647895011</v>
+        <v>1.01911149596901</v>
       </c>
       <c r="D16">
-        <v>1.005280614278921</v>
+        <v>1.025634043768248</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9502009586797434</v>
+        <v>1.015341641014013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035793536537723</v>
+        <v>1.030437343445007</v>
       </c>
       <c r="J16">
-        <v>1.012299285534729</v>
+        <v>1.025546550585657</v>
       </c>
       <c r="K16">
-        <v>1.019518776171191</v>
+        <v>1.02910891261601</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9654920585795881</v>
+        <v>1.018854435768494</v>
       </c>
       <c r="N16">
-        <v>1.008125274959782</v>
+        <v>1.012594481592741</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9851180714947062</v>
+        <v>1.019415128692437</v>
       </c>
       <c r="D17">
-        <v>1.006431256168613</v>
+        <v>1.025857964806815</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9530222733099686</v>
+        <v>1.015894485696215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036222423553721</v>
+        <v>1.030495967268323</v>
       </c>
       <c r="J17">
-        <v>1.013160402019208</v>
+        <v>1.025710230586125</v>
       </c>
       <c r="K17">
-        <v>1.020327454059685</v>
+        <v>1.029259535571963</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9679073774310452</v>
+        <v>1.019331924852089</v>
       </c>
       <c r="N17">
-        <v>1.008411591883559</v>
+        <v>1.012648809644151</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9860578189109703</v>
+        <v>1.019592252740597</v>
       </c>
       <c r="D18">
-        <v>1.00709747589632</v>
+        <v>1.025988587730579</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9546518380080417</v>
+        <v>1.016216965458812</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036469513581746</v>
+        <v>1.030530029422765</v>
       </c>
       <c r="J18">
-        <v>1.01365809326995</v>
+        <v>1.025805643125185</v>
       </c>
       <c r="K18">
-        <v>1.020794812048316</v>
+        <v>1.029347320809367</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.969302111664508</v>
+        <v>1.019610393039569</v>
       </c>
       <c r="N18">
-        <v>1.008577075556574</v>
+        <v>1.012680476723466</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9863769942726014</v>
+        <v>1.019652650866345</v>
       </c>
       <c r="D19">
-        <v>1.007323815029473</v>
+        <v>1.02603312903832</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9552048102795426</v>
+        <v>1.016326925353438</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036553249522231</v>
+        <v>1.030541621315671</v>
       </c>
       <c r="J19">
-        <v>1.013827026803164</v>
+        <v>1.025838166274018</v>
       </c>
       <c r="K19">
-        <v>1.020953444406095</v>
+        <v>1.029377241315371</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9697753396108453</v>
+        <v>1.019705336279145</v>
       </c>
       <c r="N19">
-        <v>1.008633246992747</v>
+        <v>1.012691270717729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9849446121839658</v>
+        <v>1.01938254967719</v>
       </c>
       <c r="D20">
-        <v>1.006308315939246</v>
+        <v>1.025833938786466</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9527212478316001</v>
+        <v>1.015835169189023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03617672722673</v>
+        <v>1.030489691151312</v>
       </c>
       <c r="J20">
-        <v>1.01306848912031</v>
+        <v>1.025692675394853</v>
       </c>
       <c r="K20">
-        <v>1.020241140820684</v>
+        <v>1.02924338245061</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.96764970448164</v>
+        <v>1.019280699274802</v>
       </c>
       <c r="N20">
-        <v>1.008381030892395</v>
+        <v>1.012642982986492</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9801980713554846</v>
+        <v>1.018504664189741</v>
       </c>
       <c r="D21">
-        <v>1.00294798710852</v>
+        <v>1.025186514134142</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9444537733616859</v>
+        <v>1.014236587808246</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034916060046337</v>
+        <v>1.030319308950876</v>
       </c>
       <c r="J21">
-        <v>1.010547684500963</v>
+        <v>1.025218975288453</v>
       </c>
       <c r="K21">
-        <v>1.017873723382752</v>
+        <v>1.028807366148349</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9605698604977221</v>
+        <v>1.01789964935752</v>
       </c>
       <c r="N21">
-        <v>1.007542906359461</v>
+        <v>1.012485741982243</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9771414542919995</v>
+        <v>1.017952890892586</v>
       </c>
       <c r="D22">
-        <v>1.00078799110036</v>
+        <v>1.024779582800851</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9390971062385787</v>
+        <v>1.013231603247971</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034094354368367</v>
+        <v>1.030210994804541</v>
       </c>
       <c r="J22">
-        <v>1.008918782186162</v>
+        <v>1.02492061069455</v>
       </c>
       <c r="K22">
-        <v>1.016343853879095</v>
+        <v>1.028532593787705</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9559799584749472</v>
+        <v>1.017030917992433</v>
       </c>
       <c r="N22">
-        <v>1.007001374779416</v>
+        <v>1.012386685384294</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9787689118976165</v>
+        <v>1.018245378231797</v>
       </c>
       <c r="D23">
-        <v>1.001937665110227</v>
+        <v>1.024995292068762</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9419525239381333</v>
+        <v>1.013764355720573</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034532783158437</v>
+        <v>1.030268526691074</v>
       </c>
       <c r="J23">
-        <v>1.009786599082042</v>
+        <v>1.025078829549183</v>
       </c>
       <c r="K23">
-        <v>1.017158909963691</v>
+        <v>1.028678315476793</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9584268838796151</v>
+        <v>1.017491488904011</v>
       </c>
       <c r="N23">
-        <v>1.007289876590569</v>
+        <v>1.012439215389479</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9850230141343028</v>
+        <v>1.019397270669409</v>
       </c>
       <c r="D24">
-        <v>1.006363882543825</v>
+        <v>1.025844795069053</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.952857317772791</v>
+        <v>1.015861971718667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036197384910296</v>
+        <v>1.03049252746671</v>
       </c>
       <c r="J24">
-        <v>1.013110034739135</v>
+        <v>1.025700608013166</v>
       </c>
       <c r="K24">
-        <v>1.020280155414808</v>
+        <v>1.029250681568975</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9677661791856342</v>
+        <v>1.019303846040616</v>
       </c>
       <c r="N24">
-        <v>1.008394844777394</v>
+        <v>1.012645615868885</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9919879525721713</v>
+        <v>1.020734767582624</v>
       </c>
       <c r="D25">
-        <v>1.011308024125022</v>
+        <v>1.026831124073653</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9648871538968647</v>
+        <v>1.018296732923734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038009105179122</v>
+        <v>1.030747283488224</v>
       </c>
       <c r="J25">
-        <v>1.016787995628671</v>
+        <v>1.026419821889978</v>
       </c>
       <c r="K25">
-        <v>1.023733297608904</v>
+        <v>1.029912109351004</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9780561590626314</v>
+        <v>1.021405305491688</v>
       </c>
       <c r="N25">
-        <v>1.009617824448384</v>
+        <v>1.012884285940956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02180215628182</v>
+        <v>0.9973290078185657</v>
       </c>
       <c r="D2">
-        <v>1.027618200386493</v>
+        <v>1.015109601010399</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.020239311050894</v>
+        <v>0.9740417921211373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030946282868828</v>
+        <v>1.039363884115069</v>
       </c>
       <c r="J2">
-        <v>1.026991572615026</v>
+        <v>1.019589902356604</v>
       </c>
       <c r="K2">
-        <v>1.03043740429647</v>
+        <v>1.026362373186583</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.023080185139902</v>
+        <v>0.98587501655555</v>
       </c>
       <c r="N2">
-        <v>1.013073959379771</v>
+        <v>1.010549540969996</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022577510827691</v>
+        <v>1.001092574027782</v>
       </c>
       <c r="D3">
-        <v>1.028189888896194</v>
+        <v>1.01779345404729</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.021650225594853</v>
+        <v>0.9804608616159504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031088335780921</v>
+        <v>1.040298093994467</v>
       </c>
       <c r="J3">
-        <v>1.027405608717223</v>
+        <v>1.021553498622024</v>
       </c>
       <c r="K3">
-        <v>1.030817494064643</v>
+        <v>1.028203615976016</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.024295637257594</v>
+        <v>0.9913500085325503</v>
       </c>
       <c r="N3">
-        <v>1.013211276150165</v>
+        <v>1.011202482154936</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02307936737259</v>
+        <v>1.003477783623215</v>
       </c>
       <c r="D4">
-        <v>1.028559895784052</v>
+        <v>1.019496477833624</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.022563404435056</v>
+        <v>0.9845169809851692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031179123125931</v>
+        <v>1.040880548498684</v>
       </c>
       <c r="J4">
-        <v>1.027673003403625</v>
+        <v>1.02279294378391</v>
       </c>
       <c r="K4">
-        <v>1.031062822506086</v>
+        <v>1.02936515709114</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.025081830657428</v>
+        <v>0.9948059355314569</v>
       </c>
       <c r="N4">
-        <v>1.013299941713283</v>
+        <v>1.011614609463014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02329038286283</v>
+        <v>1.004468944673827</v>
       </c>
       <c r="D5">
-        <v>1.028715466100335</v>
+        <v>1.020204626811811</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.022947361226487</v>
+        <v>0.9861999499601672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031217019126009</v>
+        <v>1.041120253402584</v>
       </c>
       <c r="J5">
-        <v>1.027785292441931</v>
+        <v>1.023306780741743</v>
       </c>
       <c r="K5">
-        <v>1.03116581063787</v>
+        <v>1.029846520952359</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.025412280566139</v>
+        <v>0.9962389705679472</v>
       </c>
       <c r="N5">
-        <v>1.013337171599949</v>
+        <v>1.011785459455763</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023325815315823</v>
+        <v>1.004634697248836</v>
       </c>
       <c r="D6">
-        <v>1.028741588144393</v>
+        <v>1.0203230774567</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.023011832658306</v>
+        <v>0.9864812554477608</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031223366128491</v>
+        <v>1.041160201684775</v>
       </c>
       <c r="J6">
-        <v>1.027804138996416</v>
+        <v>1.023392638875426</v>
       </c>
       <c r="K6">
-        <v>1.031183094102401</v>
+        <v>1.029926942285629</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.025467760775004</v>
+        <v>0.996478446236983</v>
       </c>
       <c r="N6">
-        <v>1.013343420009939</v>
+        <v>1.011814006770706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023082186835614</v>
+        <v>1.003491072549531</v>
       </c>
       <c r="D7">
-        <v>1.028561974447459</v>
+        <v>1.019505970498593</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.022568534659017</v>
+        <v>0.9845395548136537</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03117963055946</v>
+        <v>1.040883771567102</v>
       </c>
       <c r="J7">
-        <v>1.027674504301953</v>
+        <v>1.022799837798858</v>
       </c>
       <c r="K7">
-        <v>1.031064199220749</v>
+        <v>1.0293716161401</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.025086246400664</v>
+        <v>0.9948251605700007</v>
       </c>
       <c r="N7">
-        <v>1.013300439358393</v>
+        <v>1.011616901736933</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022064159267292</v>
+        <v>0.9986115411163419</v>
       </c>
       <c r="D8">
-        <v>1.027811386619518</v>
+        <v>1.016023731646601</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.020716091946442</v>
+        <v>0.9762320133077709</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030994524139968</v>
+        <v>1.039684241828987</v>
       </c>
       <c r="J8">
-        <v>1.027131604225888</v>
+        <v>1.020260096420249</v>
       </c>
       <c r="K8">
-        <v>1.030565984344612</v>
+        <v>1.026990939140443</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.023491013488055</v>
+        <v>0.9877438616835245</v>
       </c>
       <c r="N8">
-        <v>1.013120404935929</v>
+        <v>1.010772398545206</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020271458995708</v>
+        <v>0.9896103057714758</v>
       </c>
       <c r="D9">
-        <v>1.02648946843368</v>
+        <v>1.009618505358022</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.0174534199693</v>
+        <v>0.9607929366045235</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030659702358139</v>
+        <v>1.037396025627981</v>
       </c>
       <c r="J9">
-        <v>1.026171029548005</v>
+        <v>1.015535362043811</v>
       </c>
       <c r="K9">
-        <v>1.029683386142633</v>
+        <v>1.022557433030723</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.020677710263055</v>
+        <v>0.9745558509603772</v>
       </c>
       <c r="N9">
-        <v>1.012801733962393</v>
+        <v>1.009201293152094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019077185305457</v>
+        <v>0.9833095054922811</v>
       </c>
       <c r="D10">
-        <v>1.025608740399385</v>
+        <v>1.005149904506927</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.015279166160612</v>
+        <v>0.9498799054644225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030430700518498</v>
+        <v>1.0357446479512</v>
       </c>
       <c r="J10">
-        <v>1.025528045166171</v>
+        <v>1.012201342275632</v>
       </c>
       <c r="K10">
-        <v>1.02909188123661</v>
+        <v>1.019426794245242</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.018800468999474</v>
+        <v>0.9652171617711597</v>
       </c>
       <c r="N10">
-        <v>1.012588339087986</v>
+        <v>1.008092709887401</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018560267062506</v>
+        <v>0.9805029076955648</v>
       </c>
       <c r="D11">
-        <v>1.025227520798733</v>
+        <v>1.003163574295094</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.014337850764017</v>
+        <v>0.944986545325483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030330172011376</v>
+        <v>1.034997597653201</v>
       </c>
       <c r="J11">
-        <v>1.025249015062506</v>
+        <v>1.010709900231789</v>
       </c>
       <c r="K11">
-        <v>1.028835024584791</v>
+        <v>1.018026075828848</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.017987162046739</v>
+        <v>0.9610262621304082</v>
       </c>
       <c r="N11">
-        <v>1.012495714433539</v>
+        <v>1.007596837637371</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018368293057168</v>
+        <v>0.9794479834232219</v>
       </c>
       <c r="D12">
-        <v>1.025085941277826</v>
+        <v>1.002417639294393</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.013988223137411</v>
+        <v>0.9431417208541686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030292625869322</v>
+        <v>1.034715104020071</v>
       </c>
       <c r="J12">
-        <v>1.025145279121901</v>
+        <v>1.010148349182601</v>
       </c>
       <c r="K12">
-        <v>1.028739507368028</v>
+        <v>1.017498667265522</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.017684992961183</v>
+        <v>0.959445797508367</v>
       </c>
       <c r="N12">
-        <v>1.012461276150124</v>
+        <v>1.007410142539351</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018409470650747</v>
+        <v>0.9796748419381606</v>
       </c>
       <c r="D13">
-        <v>1.025116309532878</v>
+        <v>1.00257801930395</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.014063218660085</v>
+        <v>0.9435387074135354</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030300688932792</v>
+        <v>1.034775929779993</v>
       </c>
       <c r="J13">
-        <v>1.025167534977315</v>
+        <v>1.010269152552611</v>
       </c>
       <c r="K13">
-        <v>1.02876000106772</v>
+        <v>1.017612126120557</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.017749812505212</v>
+        <v>0.9597859171084946</v>
       </c>
       <c r="N13">
-        <v>1.012468664785668</v>
+        <v>1.007450304803328</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018544397764411</v>
+        <v>0.9804159648985138</v>
       </c>
       <c r="D14">
-        <v>1.02521581732747</v>
+        <v>1.00310208323239</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.014308950073575</v>
+        <v>0.9448346188595576</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030327072623324</v>
+        <v>1.034974349973525</v>
       </c>
       <c r="J14">
-        <v>1.025240442086077</v>
+        <v>1.010663638865068</v>
       </c>
       <c r="K14">
-        <v>1.028827131326315</v>
+        <v>1.01798262736825</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.017962186116056</v>
+        <v>0.960896115716942</v>
       </c>
       <c r="N14">
-        <v>1.012492868433839</v>
+        <v>1.007581457246781</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018627535137771</v>
+        <v>0.9808709275126988</v>
       </c>
       <c r="D15">
-        <v>1.025277130368384</v>
+        <v>1.003423887296471</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.014460355686917</v>
+        <v>0.9456294040731403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030343301281</v>
+        <v>1.035095933621897</v>
       </c>
       <c r="J15">
-        <v>1.025285350419584</v>
+        <v>1.010905680697262</v>
       </c>
       <c r="K15">
-        <v>1.028868478040118</v>
+        <v>1.018209951400716</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.018093027046533</v>
+        <v>0.9615769422819448</v>
       </c>
       <c r="N15">
-        <v>1.012507776684798</v>
+        <v>1.007661928594503</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01911149596901</v>
+        <v>0.983494064789501</v>
       </c>
       <c r="D16">
-        <v>1.025634043768248</v>
+        <v>1.00528061427892</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.015341641014013</v>
+        <v>0.9502009586797429</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030437343445007</v>
+        <v>1.035793536537723</v>
       </c>
       <c r="J16">
-        <v>1.025546550585657</v>
+        <v>1.012299285534729</v>
       </c>
       <c r="K16">
-        <v>1.02910891261601</v>
+        <v>1.019518776171191</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.018854435768494</v>
+        <v>0.9654920585795874</v>
       </c>
       <c r="N16">
-        <v>1.012594481592741</v>
+        <v>1.008125274959782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019415128692437</v>
+        <v>0.9851180714947062</v>
       </c>
       <c r="D17">
-        <v>1.025857964806815</v>
+        <v>1.006431256168613</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.015894485696215</v>
+        <v>0.9530222733099691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030495967268323</v>
+        <v>1.036222423553721</v>
       </c>
       <c r="J17">
-        <v>1.025710230586125</v>
+        <v>1.013160402019208</v>
       </c>
       <c r="K17">
-        <v>1.029259535571963</v>
+        <v>1.020327454059685</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.019331924852089</v>
+        <v>0.9679073774310455</v>
       </c>
       <c r="N17">
-        <v>1.012648809644151</v>
+        <v>1.008411591883559</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019592252740597</v>
+        <v>0.9860578189109698</v>
       </c>
       <c r="D18">
-        <v>1.025988587730579</v>
+        <v>1.007097475896319</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.016216965458812</v>
+        <v>0.9546518380080412</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030530029422765</v>
+        <v>1.036469513581746</v>
       </c>
       <c r="J18">
-        <v>1.025805643125185</v>
+        <v>1.01365809326995</v>
       </c>
       <c r="K18">
-        <v>1.029347320809367</v>
+        <v>1.020794812048316</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.019610393039569</v>
+        <v>0.9693021116645075</v>
       </c>
       <c r="N18">
-        <v>1.012680476723466</v>
+        <v>1.008577075556574</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019652650866345</v>
+        <v>0.9863769942726008</v>
       </c>
       <c r="D19">
-        <v>1.02603312903832</v>
+        <v>1.007323815029472</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.016326925353438</v>
+        <v>0.9552048102795418</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030541621315671</v>
+        <v>1.036553249522231</v>
       </c>
       <c r="J19">
-        <v>1.025838166274018</v>
+        <v>1.013827026803163</v>
       </c>
       <c r="K19">
-        <v>1.029377241315371</v>
+        <v>1.020953444406095</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.019705336279145</v>
+        <v>0.9697753396108446</v>
       </c>
       <c r="N19">
-        <v>1.012691270717729</v>
+        <v>1.008633246992747</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01938254967719</v>
+        <v>0.9849446121839655</v>
       </c>
       <c r="D20">
-        <v>1.025833938786466</v>
+        <v>1.006308315939246</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.015835169189023</v>
+        <v>0.9527212478315996</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030489691151312</v>
+        <v>1.036176727226729</v>
       </c>
       <c r="J20">
-        <v>1.025692675394853</v>
+        <v>1.013068489120309</v>
       </c>
       <c r="K20">
-        <v>1.02924338245061</v>
+        <v>1.020241140820684</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.019280699274802</v>
+        <v>0.9676497044816396</v>
       </c>
       <c r="N20">
-        <v>1.012642982986492</v>
+        <v>1.008381030892395</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018504664189741</v>
+        <v>0.9801980713554848</v>
       </c>
       <c r="D21">
-        <v>1.025186514134142</v>
+        <v>1.002947987108519</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.014236587808246</v>
+        <v>0.9444537733616853</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030319308950876</v>
+        <v>1.034916060046337</v>
       </c>
       <c r="J21">
-        <v>1.025218975288453</v>
+        <v>1.010547684500963</v>
       </c>
       <c r="K21">
-        <v>1.028807366148349</v>
+        <v>1.017873723382752</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.01789964935752</v>
+        <v>0.9605698604977218</v>
       </c>
       <c r="N21">
-        <v>1.012485741982243</v>
+        <v>1.007542906359461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017952890892586</v>
+        <v>0.9771414542919989</v>
       </c>
       <c r="D22">
-        <v>1.024779582800851</v>
+        <v>1.000787991100359</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.013231603247971</v>
+        <v>0.9390971062385781</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030210994804541</v>
+        <v>1.034094354368366</v>
       </c>
       <c r="J22">
-        <v>1.02492061069455</v>
+        <v>1.008918782186162</v>
       </c>
       <c r="K22">
-        <v>1.028532593787705</v>
+        <v>1.016343853879094</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.017030917992433</v>
+        <v>0.9559799584749468</v>
       </c>
       <c r="N22">
-        <v>1.012386685384294</v>
+        <v>1.007001374779416</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018245378231797</v>
+        <v>0.9787689118976166</v>
       </c>
       <c r="D23">
-        <v>1.024995292068762</v>
+        <v>1.001937665110227</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.013764355720573</v>
+        <v>0.9419525239381339</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030268526691074</v>
+        <v>1.034532783158437</v>
       </c>
       <c r="J23">
-        <v>1.025078829549183</v>
+        <v>1.009786599082042</v>
       </c>
       <c r="K23">
-        <v>1.028678315476793</v>
+        <v>1.017158909963691</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.017491488904011</v>
+        <v>0.9584268838796157</v>
       </c>
       <c r="N23">
-        <v>1.012439215389479</v>
+        <v>1.007289876590569</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019397270669409</v>
+        <v>0.9850230141343032</v>
       </c>
       <c r="D24">
-        <v>1.025844795069053</v>
+        <v>1.006363882543825</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.015861971718667</v>
+        <v>0.9528573177727915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03049252746671</v>
+        <v>1.036197384910296</v>
       </c>
       <c r="J24">
-        <v>1.025700608013166</v>
+        <v>1.013110034739135</v>
       </c>
       <c r="K24">
-        <v>1.029250681568975</v>
+        <v>1.020280155414808</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.019303846040616</v>
+        <v>0.9677661791856348</v>
       </c>
       <c r="N24">
-        <v>1.012645615868885</v>
+        <v>1.008394844777394</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020734767582624</v>
+        <v>0.9919879525721716</v>
       </c>
       <c r="D25">
-        <v>1.026831124073653</v>
+        <v>1.011308024125023</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.018296732923734</v>
+        <v>0.9648871538968644</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030747283488224</v>
+        <v>1.038009105179123</v>
       </c>
       <c r="J25">
-        <v>1.026419821889978</v>
+        <v>1.016787995628672</v>
       </c>
       <c r="K25">
-        <v>1.029912109351004</v>
+        <v>1.023733297608904</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.021405305491688</v>
+        <v>0.9780561590626313</v>
       </c>
       <c r="N25">
-        <v>1.012884285940956</v>
+        <v>1.009617824448384</v>
       </c>
     </row>
   </sheetData>
